--- a/CompanyManager/ExcelForm/BOR등록양식.xlsx
+++ b/CompanyManager/ExcelForm/BOR등록양식.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JIN\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JIN\source\repos\Team5FinalProject\CompanyManager\ExcelForm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CAA2479-E55D-430A-9B7D-49D8C8B45311}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60517D38-330A-46D3-B46A-9300452CA474}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51580474-16C5-4659-8666-E494E5C5C912}"/>
+    <workbookView xWindow="10935" yWindow="7455" windowWidth="21810" windowHeight="10845" xr2:uid="{51580474-16C5-4659-8666-E494E5C5C912}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -93,7 +93,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -103,6 +103,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -136,11 +142,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -460,7 +469,7 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -471,22 +480,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
